--- a/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
+++ b/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B8B0E7-98D2-EB4A-8F43-6044315FF9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FA778-3B50-084C-B9BC-D3A7125FCE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="460" windowWidth="15320" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
+    <workbookView xWindow="5580" yWindow="460" windowWidth="21080" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Not Used</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Thirteen</t>
+  </si>
+  <si>
+    <t>Enable Web Hooks</t>
+  </si>
+  <si>
+    <t>09876543210987654321abcdefABCDEF</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,12 +151,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -460,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBBEC93-7333-1442-B72C-828450A2C003}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,9 +488,10 @@
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -508,57 +522,87 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
       </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
       </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="D10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
+++ b/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FA778-3B50-084C-B9BC-D3A7125FCE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F01E3-56EE-5F4D-B2D8-86B3D4D9D7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="460" windowWidth="21080" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
       <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="J3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +564,7 @@
       <c r="J5" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -578,7 +578,7 @@
       <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -592,7 +592,7 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
+++ b/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F01E3-56EE-5F4D-B2D8-86B3D4D9D7BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25CE7DD-2D6E-F947-8D2F-C20689FB7199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="460" windowWidth="21080" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="21080" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Not Used</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>09876543210987654321abcdefABCDEF</t>
+  </si>
+  <si>
+    <t>Is Active?</t>
+  </si>
+  <si>
+    <t>ToggleToActiveGroup</t>
+  </si>
+  <si>
+    <t>ToggleToInactiveGroup</t>
   </si>
 </sst>
 </file>
@@ -475,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBBEC93-7333-1442-B72C-828450A2C003}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,6 +531,9 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
@@ -536,6 +548,9 @@
       <c r="J2" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" s="5" t="b">
         <v>1</v>
       </c>
@@ -550,6 +565,9 @@
       <c r="J3" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="L3" s="5" t="b">
         <v>0</v>
       </c>
@@ -564,6 +582,9 @@
       <c r="J5" t="s">
         <v>10</v>
       </c>
+      <c r="K5" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="L5" s="5" t="b">
         <v>1</v>
       </c>
@@ -578,6 +599,9 @@
       <c r="J6" t="s">
         <v>11</v>
       </c>
+      <c r="K6" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="L6" s="5" t="b">
         <v>0</v>
       </c>
@@ -592,7 +616,44 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
+      <c r="K7" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="L7" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
+++ b/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25CE7DD-2D6E-F947-8D2F-C20689FB7199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B5794-BD57-FF4D-A6CF-FAA43B9CF549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="460" windowWidth="21080" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Not Used</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Thirteen</t>
-  </si>
-  <si>
-    <t>Enable Web Hooks</t>
   </si>
   <si>
     <t>09876543210987654321abcdefABCDEF</t>
@@ -160,13 +157,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -485,7 +484,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +496,7 @@
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -532,11 +531,9 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -551,9 +548,6 @@
       <c r="K2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
@@ -568,9 +562,6 @@
       <c r="K3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
@@ -585,9 +576,6 @@
       <c r="K5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" s="5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
@@ -602,58 +590,46 @@
       <c r="K6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L6" s="5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="L7" s="5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
+++ b/tests/ExcelImport/workbooks/participant-group-importer-updating.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977B5794-BD57-FF4D-A6CF-FAA43B9CF549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D8B87F-BF3C-5945-8623-E76113947382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="21080" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
+    <workbookView xWindow="7720" yWindow="460" windowWidth="21080" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
-  <si>
-    <t>Not Used</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ServiceNow ID</t>
   </si>
@@ -81,6 +78,18 @@
   </si>
   <si>
     <t>ToggleToInactiveGroup</t>
+  </si>
+  <si>
+    <t>Accept Saliva</t>
+  </si>
+  <si>
+    <t>Accept Blood</t>
+  </si>
+  <si>
+    <t>Saliva Web Hooks</t>
+  </si>
+  <si>
+    <t>Blood Web Hooks</t>
   </si>
 </sst>
 </file>
@@ -157,12 +166,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -484,7 +492,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,150 +500,230 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
         <v>13</v>
       </c>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="5" t="b">
-        <v>0</v>
+      <c r="E9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="D10" s="3"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
